--- a/cheat_codes.xlsx
+++ b/cheat_codes.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eliezer\Data\angular\angular-rest-demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D5CD84A-72CA-4465-9AE7-53EBCE567896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B7B6B1-219B-41EB-845C-378B78AE40D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{939F71B9-F505-4FFD-BA15-EAEBA63FC85B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{939F71B9-F505-4FFD-BA15-EAEBA63FC85B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Create" sheetId="1" r:id="rId1"/>
-    <sheet name="Deploy" sheetId="2" r:id="rId2"/>
+    <sheet name="Install" sheetId="3" r:id="rId1"/>
+    <sheet name="Create" sheetId="1" r:id="rId2"/>
+    <sheet name="Deploy" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,15 +37,62 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>ng new</t>
+  </si>
+  <si>
+    <t>create application</t>
+  </si>
+  <si>
+    <t>ng new angular-demo</t>
+  </si>
+  <si>
+    <t>Project Specific Command</t>
+  </si>
+  <si>
+    <t>create componente</t>
+  </si>
+  <si>
+    <t>ng generate component</t>
+  </si>
+  <si>
+    <t>ng generate component TableUserMessage</t>
+  </si>
+  <si>
+    <t>ng generate component TableUserAccount</t>
+  </si>
+  <si>
+    <t>ng generate component FormUserAccount</t>
+  </si>
+  <si>
+    <t>ng generate component FormUserMessage</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF232629"/>
+      <name val="Cascadia Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -67,8 +115,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -84,6 +133,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1CABA48-FC65-4296-BD33-6F60FDC1850C}" name="Table1" displayName="Table1" ref="A1:C6" totalsRowShown="0">
+  <autoFilter ref="A1:C6" xr:uid="{C1CABA48-FC65-4296-BD33-6F60FDC1850C}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{9D2B137D-7EEB-47FC-A0E9-8433DBA95F59}" name="Action"/>
+    <tableColumn id="2" xr3:uid="{9899EF0D-6EDE-49D3-BD54-50F5FFA2597A}" name="Command"/>
+    <tableColumn id="3" xr3:uid="{CAF3E665-CE7E-4E4F-A225-8B826DCBBA04}" name="Project Specific Command"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,7 +443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0561141A-5F45-4BBD-A00A-E29C34B24680}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA4AED8-1682-4267-BC02-F7180C4EE497}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -394,10 +455,82 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0561141A-5F45-4BBD-A00A-E29C34B24680}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00049259-D3C2-4A17-94C6-4878383F69DB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
